--- a/automation/Repository/Cancellation.xlsx
+++ b/automation/Repository/Cancellation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohit.goel\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Automation\automation\Repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -363,7 +363,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/automation/Repository/Cancellation.xlsx
+++ b/automation/Repository/Cancellation.xlsx
@@ -41,7 +41,7 @@
     <t>POW100330</t>
   </si>
   <si>
-    <t>ABCDE1234578</t>
+    <t>AB1235845</t>
   </si>
 </sst>
 </file>
@@ -363,7 +363,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/automation/Repository/Cancellation.xlsx
+++ b/automation/Repository/Cancellation.xlsx
@@ -3,18 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Automation\automation\Repository\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18690" windowHeight="4305"/>
   </bookViews>
   <sheets>
     <sheet name="Contract" sheetId="1" r:id="rId1"/>
+    <sheet name="Error" sheetId="2" r:id="rId2"/>
+    <sheet name="OverRide" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:R12"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,10 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>on hold</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>processed</t>
   </si>
@@ -38,10 +33,37 @@
     <t>contractStatus</t>
   </si>
   <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>Error: Time or mileage less than zero</t>
+  </si>
+  <si>
+    <t>Error: Time or mileage less than zero case</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>Rules</t>
+  </si>
+  <si>
     <t>POW100330</t>
   </si>
   <si>
-    <t>AB1235845</t>
+    <t>onhold</t>
+  </si>
+  <si>
+    <t>9X072185A9</t>
+  </si>
+  <si>
+    <t>GVEDRVSQ</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>8BB33700A9</t>
   </si>
 </sst>
 </file>
@@ -363,7 +385,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -374,30 +396,116 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/automation/Repository/Cancellation.xlsx
+++ b/automation/Repository/Cancellation.xlsx
@@ -63,7 +63,7 @@
     <t>negative</t>
   </si>
   <si>
-    <t>8BB33700A9</t>
+    <t>FK732990A9</t>
   </si>
 </sst>
 </file>
@@ -385,7 +385,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/automation/Repository/Cancellation.xlsx
+++ b/automation/Repository/Cancellation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18690" windowHeight="4305"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18690" windowHeight="4305" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Contract" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="OverRide" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:R12"/>
+  <oleSize ref="A1:O12"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -57,13 +57,13 @@
     <t>9X072185A9</t>
   </si>
   <si>
-    <t>GVEDRVSQ</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
-    <t>FK732990A9</t>
+    <t>E9101626A9</t>
+  </si>
+  <si>
+    <t>VGUZBZRR</t>
   </si>
 </sst>
 </file>
@@ -384,8 +384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,7 +412,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -471,8 +471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,15 +491,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>

--- a/automation/Repository/Cancellation.xlsx
+++ b/automation/Repository/Cancellation.xlsx
@@ -60,10 +60,10 @@
     <t>negative</t>
   </si>
   <si>
-    <t>E9101626A9</t>
-  </si>
-  <si>
-    <t>VGUZBZRR</t>
+    <t>DT681495A9</t>
+  </si>
+  <si>
+    <t>ERICA</t>
   </si>
 </sst>
 </file>
@@ -382,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -402,7 +402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -410,7 +410,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -418,6 +418,7 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="1:2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -477,7 +478,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/automation/Repository/Cancellation.xlsx
+++ b/automation/Repository/Cancellation.xlsx
@@ -3,16 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Automation\automation\Repository\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18690" windowHeight="4305" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18690" windowHeight="4935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Contract" sheetId="1" r:id="rId1"/>
-    <sheet name="Error" sheetId="2" r:id="rId2"/>
+    <sheet name="Calculate" sheetId="4" r:id="rId2"/>
     <sheet name="OverRide" sheetId="3" r:id="rId3"/>
+    <sheet name="Error" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:O12"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>processed</t>
   </si>
@@ -60,10 +65,22 @@
     <t>negative</t>
   </si>
   <si>
-    <t>DT681495A9</t>
-  </si>
-  <si>
-    <t>ERICA</t>
+    <t>cancel</t>
+  </si>
+  <si>
+    <t>customer</t>
+  </si>
+  <si>
+    <t>cancdd</t>
+  </si>
+  <si>
+    <t>CS136744A9</t>
+  </si>
+  <si>
+    <t>TEQJITIK</t>
+  </si>
+  <si>
+    <t>H9007848A9</t>
   </si>
 </sst>
 </file>
@@ -382,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -402,7 +419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -410,15 +427,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -429,8 +445,94 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,47 +568,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/automation/Repository/Cancellation.xlsx
+++ b/automation/Repository/Cancellation.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Automation\automation\Repository\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18690" windowHeight="4935" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18690" windowHeight="4935"/>
   </bookViews>
   <sheets>
     <sheet name="Contract" sheetId="1" r:id="rId1"/>
@@ -18,6 +13,7 @@
     <sheet name="Error" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:R14"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -74,13 +70,13 @@
     <t>cancdd</t>
   </si>
   <si>
-    <t>CS136744A9</t>
-  </si>
-  <si>
     <t>TEQJITIK</t>
   </si>
   <si>
     <t>H9007848A9</t>
+  </si>
+  <si>
+    <t>CE002662A9</t>
   </si>
 </sst>
 </file>
@@ -401,8 +397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,7 +425,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -445,7 +441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -465,7 +461,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
@@ -473,7 +469,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -508,7 +504,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>11</v>
@@ -516,7 +512,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>

--- a/automation/Repository/Cancellation.xlsx
+++ b/automation/Repository/Cancellation.xlsx
@@ -3,8 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohit.goel\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18690" windowHeight="4935"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Contract" sheetId="1" r:id="rId1"/>
@@ -13,7 +18,6 @@
     <sheet name="Error" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:R14"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -76,7 +80,7 @@
     <t>H9007848A9</t>
   </si>
   <si>
-    <t>CE002662A9</t>
+    <t>9Z001140A9</t>
   </si>
 </sst>
 </file>
@@ -442,7 +446,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,6 +481,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -485,7 +490,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,6 +525,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/automation/Repository/Cancellation.xlsx
+++ b/automation/Repository/Cancellation.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohit.goel\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18300" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Contract" sheetId="1" r:id="rId1"/>
@@ -18,6 +13,7 @@
     <sheet name="Error" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -80,7 +76,7 @@
     <t>H9007848A9</t>
   </si>
   <si>
-    <t>9Z001140A9</t>
+    <t>CB043823A9</t>
   </si>
 </sst>
 </file>

--- a/automation/Repository/Cancellation.xlsx
+++ b/automation/Repository/Cancellation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18300" windowHeight="7935"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18690" windowHeight="4935"/>
   </bookViews>
   <sheets>
     <sheet name="Contract" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
     <t>H9007848A9</t>
   </si>
   <si>
-    <t>CB043823A9</t>
+    <t>FN221208A9</t>
   </si>
 </sst>
 </file>

--- a/automation/Repository/Cancellation.xlsx
+++ b/automation/Repository/Cancellation.xlsx
@@ -76,7 +76,7 @@
     <t>H9007848A9</t>
   </si>
   <si>
-    <t>FN221208A9</t>
+    <t>EW515436A9</t>
   </si>
 </sst>
 </file>

--- a/automation/Repository/Cancellation.xlsx
+++ b/automation/Repository/Cancellation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18690" windowHeight="4935"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18690" windowHeight="4935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Contract" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Error" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:R14"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -70,13 +70,13 @@
     <t>cancdd</t>
   </si>
   <si>
-    <t>TEQJITIK</t>
-  </si>
-  <si>
     <t>H9007848A9</t>
   </si>
   <si>
-    <t>EW515436A9</t>
+    <t>CBD22830A9</t>
+  </si>
+  <si>
+    <t>HHXMQQOX</t>
   </si>
 </sst>
 </file>
@@ -397,8 +397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,7 +425,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -441,8 +441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,7 +461,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
@@ -469,7 +469,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -491,7 +491,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -505,7 +505,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>11</v>
@@ -513,7 +513,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>

--- a/automation/Repository/Cancellation.xlsx
+++ b/automation/Repository/Cancellation.xlsx
@@ -70,13 +70,13 @@
     <t>cancdd</t>
   </si>
   <si>
-    <t>H9007848A9</t>
-  </si>
-  <si>
     <t>CBD22830A9</t>
   </si>
   <si>
     <t>HHXMQQOX</t>
+  </si>
+  <si>
+    <t>DS505472A9</t>
   </si>
 </sst>
 </file>
@@ -425,7 +425,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -461,7 +461,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
@@ -469,7 +469,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -505,7 +505,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>11</v>
@@ -513,7 +513,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>

--- a/automation/Repository/Cancellation.xlsx
+++ b/automation/Repository/Cancellation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18690" windowHeight="4935" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18690" windowHeight="4935" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Contract" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Error" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:R14"/>
+  <oleSize ref="A1:O14"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -70,13 +70,13 @@
     <t>cancdd</t>
   </si>
   <si>
-    <t>CBD22830A9</t>
-  </si>
-  <si>
-    <t>HHXMQQOX</t>
-  </si>
-  <si>
     <t>DS505472A9</t>
+  </si>
+  <si>
+    <t>FU100256A9</t>
+  </si>
+  <si>
+    <t>FEBCGLZA</t>
   </si>
 </sst>
 </file>
@@ -398,7 +398,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,7 +425,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -441,7 +441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -461,7 +461,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
@@ -469,7 +469,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -485,7 +485,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -505,7 +505,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>11</v>
@@ -513,7 +513,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>

--- a/automation/Repository/Cancellation.xlsx
+++ b/automation/Repository/Cancellation.xlsx
@@ -3,17 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Automation\Automation\automation\Repository\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18690" windowHeight="4935" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18690" windowHeight="4940" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Contract" sheetId="1" r:id="rId1"/>
-    <sheet name="Calculate" sheetId="4" r:id="rId2"/>
-    <sheet name="OverRide" sheetId="3" r:id="rId3"/>
-    <sheet name="Error" sheetId="2" r:id="rId4"/>
+    <sheet name="Search" sheetId="5" r:id="rId2"/>
+    <sheet name="Calculate" sheetId="4" r:id="rId3"/>
+    <sheet name="OverRide" sheetId="3" r:id="rId4"/>
+    <sheet name="Error" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:O14"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>processed</t>
   </si>
@@ -77,6 +82,24 @@
   </si>
   <si>
     <t>FEBCGLZA</t>
+  </si>
+  <si>
+    <t>VIN</t>
+  </si>
+  <si>
+    <t>ABCED</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>CUSTOMER_LAST</t>
+  </si>
+  <si>
+    <t>CUSTOMER_FIRST</t>
+  </si>
+  <si>
+    <t>CERT</t>
   </si>
 </sst>
 </file>
@@ -401,13 +424,13 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -415,7 +438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -423,7 +446,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -438,6 +461,69 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -445,13 +531,13 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -459,7 +545,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -467,7 +553,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -481,21 +567,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -503,7 +589,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -511,7 +597,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -525,7 +611,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -533,13 +619,13 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -547,7 +633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -555,7 +641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>

--- a/automation/Repository/Cancellation.xlsx
+++ b/automation/Repository/Cancellation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Automation\Automation\automation\Repository\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohit.goel\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>processed</t>
   </si>
@@ -87,9 +87,6 @@
     <t>VIN</t>
   </si>
   <si>
-    <t>ABCED</t>
-  </si>
-  <si>
     <t>*</t>
   </si>
   <si>
@@ -100,6 +97,18 @@
   </si>
   <si>
     <t>CERT</t>
+  </si>
+  <si>
+    <t>Vivek</t>
+  </si>
+  <si>
+    <t>Singla</t>
+  </si>
+  <si>
+    <t>20191411001</t>
+  </si>
+  <si>
+    <t>v</t>
   </si>
 </sst>
 </file>
@@ -135,9 +144,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,14 +472,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3.7265625" bestFit="1" customWidth="1"/>
@@ -477,45 +488,57 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="2"/>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
+      <c r="C6" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/automation/Repository/Cancellation.xlsx
+++ b/automation/Repository/Cancellation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohit.goel\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Automation\Automation\automation\Repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>processed</t>
   </si>
@@ -106,9 +106,6 @@
   </si>
   <si>
     <t>20191411001</t>
-  </si>
-  <si>
-    <t>v</t>
   </si>
 </sst>
 </file>
@@ -475,7 +472,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -501,12 +498,12 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>25</v>
+      <c r="A2" s="2"/>
+      <c r="B2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
       <c r="B3" t="s">
         <v>23</v>
       </c>
@@ -514,31 +511,25 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="A4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>19</v>
       </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
+      <c r="A6" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/automation/Repository/Cancellation.xlsx
+++ b/automation/Repository/Cancellation.xlsx
@@ -12,11 +12,12 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="18690" windowHeight="4940" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Contract" sheetId="1" r:id="rId1"/>
-    <sheet name="Search" sheetId="5" r:id="rId2"/>
-    <sheet name="Calculate" sheetId="4" r:id="rId3"/>
-    <sheet name="OverRide" sheetId="3" r:id="rId4"/>
-    <sheet name="Error" sheetId="2" r:id="rId5"/>
+    <sheet name="TC_01_02" sheetId="5" r:id="rId1"/>
+    <sheet name="TC_06" sheetId="6" r:id="rId2"/>
+    <sheet name="Contract" sheetId="1" r:id="rId3"/>
+    <sheet name="Calculate" sheetId="4" r:id="rId4"/>
+    <sheet name="OverRide" sheetId="3" r:id="rId5"/>
+    <sheet name="Error" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t>processed</t>
   </si>
@@ -106,6 +107,24 @@
   </si>
   <si>
     <t>20191411001</t>
+  </si>
+  <si>
+    <t>PriceSheet</t>
+  </si>
+  <si>
+    <t>initiatedBy</t>
+  </si>
+  <si>
+    <t>cancelReason</t>
+  </si>
+  <si>
+    <t>SNE</t>
+  </si>
+  <si>
+    <t>Dealer</t>
+  </si>
+  <si>
+    <t>Customer Request</t>
   </si>
 </sst>
 </file>
@@ -425,6 +444,123 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -467,77 +603,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.7265625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="2"/>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -581,7 +647,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -625,7 +691,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>

--- a/automation/Repository/Cancellation.xlsx
+++ b/automation/Repository/Cancellation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Automation\Automation\automation\Repository\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Automation\Automation\JavaOcean\automation\Repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,11 +13,12 @@
   </bookViews>
   <sheets>
     <sheet name="TC_01_02" sheetId="5" r:id="rId1"/>
-    <sheet name="TC_06" sheetId="6" r:id="rId2"/>
-    <sheet name="Contract" sheetId="1" r:id="rId3"/>
-    <sheet name="Calculate" sheetId="4" r:id="rId4"/>
-    <sheet name="OverRide" sheetId="3" r:id="rId5"/>
-    <sheet name="Error" sheetId="2" r:id="rId6"/>
+    <sheet name="PriceSheet" sheetId="7" r:id="rId2"/>
+    <sheet name="TC_06" sheetId="6" r:id="rId3"/>
+    <sheet name="Contract" sheetId="1" r:id="rId4"/>
+    <sheet name="Calculate" sheetId="4" r:id="rId5"/>
+    <sheet name="OverRide" sheetId="3" r:id="rId6"/>
+    <sheet name="Error" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>processed</t>
   </si>
@@ -514,10 +515,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -559,7 +588,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -603,7 +632,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -647,7 +676,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -691,7 +720,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>

--- a/automation/Repository/Cancellation.xlsx
+++ b/automation/Repository/Cancellation.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Automation\Automation\JavaOcean\automation\Repository\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18690" windowHeight="4940" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13360" windowHeight="2830"/>
   </bookViews>
   <sheets>
     <sheet name="TC_01_02" sheetId="5" r:id="rId1"/>
@@ -21,6 +16,7 @@
     <sheet name="Error" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:L8"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
   <si>
     <t>processed</t>
   </si>
@@ -447,8 +443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -474,7 +470,9 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="B2" t="s">
         <v>23</v>
       </c>
@@ -517,7 +515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
